--- a/DFNSD_data/Household Coping Straregies.xlsx
+++ b/DFNSD_data/Household Coping Straregies.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="112">
   <si>
     <t>Masvingo</t>
   </si>
@@ -374,6 +374,9 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>Province</t>
+  </si>
 </sst>
 </file>
 
@@ -515,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -532,9 +535,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -554,6 +554,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,9 +567,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3049,16 +3055,16 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3912,7 +3918,7 @@
       <c r="C62" s="2">
         <v>2.1329113924050631</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -3926,7 +3932,7 @@
       <c r="C63" s="2">
         <v>2.3228346456692912</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -3940,7 +3946,7 @@
       <c r="C64" s="2">
         <v>2.1139240506329116</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -3954,7 +3960,7 @@
       <c r="C65" s="2">
         <v>2.0821917808219177</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -3968,7 +3974,7 @@
       <c r="C66" s="2">
         <v>2.3058823529411763</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -3982,7 +3988,7 @@
       <c r="C67" s="2">
         <v>2.34640522875817</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -3996,7 +4002,7 @@
       <c r="C68" s="2">
         <v>2.2868852459016393</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4010,7 +4016,7 @@
       <c r="C69" s="2">
         <v>2.3624161073825505</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4024,7 +4030,7 @@
       <c r="C70" s="2">
         <v>2.2823529411764705</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4038,7 +4044,7 @@
       <c r="C71" s="2">
         <v>2.4305555555555554</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4052,7 +4058,7 @@
       <c r="C72" s="2">
         <v>2.3851351351351351</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4066,7 +4072,7 @@
       <c r="C73" s="2">
         <v>2.3178807947019866</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4080,7 +4086,7 @@
       <c r="C74" s="2">
         <v>2.3055555555555554</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4094,7 +4100,7 @@
       <c r="C75" s="2">
         <v>2.4379084967320264</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4108,7 +4114,7 @@
       <c r="C76" s="2">
         <v>2.3097345132743361</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4122,7 +4128,7 @@
       <c r="C77" s="2">
         <v>2.3082191780821919</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4136,7 +4142,7 @@
       <c r="C78" s="2">
         <v>2.3132530120481927</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4150,7 +4156,7 @@
       <c r="C79" s="2">
         <v>2.3783783783783785</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4164,7 +4170,7 @@
       <c r="C80" s="2">
         <v>2.4444444444444446</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4178,7 +4184,7 @@
       <c r="C81" s="2">
         <v>2.1690140845070425</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4192,7 +4198,7 @@
       <c r="C82" s="2">
         <v>2.3356164383561642</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4206,7 +4212,7 @@
       <c r="C83" s="2">
         <v>2.1712328767123288</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4220,7 +4226,7 @@
       <c r="C84" s="2">
         <v>2.5251798561151078</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4234,7 +4240,7 @@
       <c r="C85" s="2">
         <v>2.0813953488372094</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4248,7 +4254,7 @@
       <c r="C86" s="2">
         <v>2.3397435897435899</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4262,7 +4268,7 @@
       <c r="C87" s="2">
         <v>2.1228070175438596</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4276,7 +4282,7 @@
       <c r="C88" s="2">
         <v>2.0612244897959182</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4290,7 +4296,7 @@
       <c r="C89" s="2">
         <v>2.5822784810126582</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4304,7 +4310,7 @@
       <c r="C90" s="2">
         <v>2.3673469387755102</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4318,7 +4324,7 @@
       <c r="C91" s="2">
         <v>2.5234375</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4332,7 +4338,7 @@
       <c r="C92" s="2">
         <v>2.328125</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4346,7 +4352,7 @@
       <c r="C93" s="2">
         <v>2.6793893129770994</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4360,7 +4366,7 @@
       <c r="C94" s="2">
         <v>2.5259259259259261</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4374,7 +4380,7 @@
       <c r="C95" s="2">
         <v>2.3723404255319149</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4388,7 +4394,7 @@
       <c r="C96" s="2">
         <v>2.4166666666666665</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4402,7 +4408,7 @@
       <c r="C97" s="2">
         <v>2.4951456310679609</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4416,7 +4422,7 @@
       <c r="C98" s="2">
         <v>1.9924812030075187</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4430,7 +4436,7 @@
       <c r="C99" s="2">
         <v>2.2083333333333335</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4444,7 +4450,7 @@
       <c r="C100" s="2">
         <v>2.2545454545454544</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4458,7 +4464,7 @@
       <c r="C101" s="2">
         <v>2.1307692307692307</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4472,7 +4478,7 @@
       <c r="C102" s="2">
         <v>1.781021897810219</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4486,7 +4492,7 @@
       <c r="C103" s="2">
         <v>2.1901408450704225</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4500,7 +4506,7 @@
       <c r="C104" s="2">
         <v>2.3461538461538463</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4514,7 +4520,7 @@
       <c r="C105" s="2">
         <v>2.6326530612244898</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4528,7 +4534,7 @@
       <c r="C106" s="2">
         <v>2.3109243697478989</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4542,7 +4548,7 @@
       <c r="C107" s="2">
         <v>2.2456140350877192</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4556,7 +4562,7 @@
       <c r="C108" s="2">
         <v>2.2196969696969697</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4570,7 +4576,7 @@
       <c r="C109" s="2">
         <v>2.3282442748091605</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4584,7 +4590,7 @@
       <c r="C110" s="2">
         <v>2.3284671532846715</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4598,7 +4604,7 @@
       <c r="C111" s="2">
         <v>2.3018867924528301</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4612,7 +4618,7 @@
       <c r="C112" s="2">
         <v>2.3153153153153152</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4626,7 +4632,7 @@
       <c r="C113" s="2">
         <v>2.2562500000000001</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4640,7 +4646,7 @@
       <c r="C114" s="2">
         <v>2.1782945736434107</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4654,7 +4660,7 @@
       <c r="C115" s="2">
         <v>2.2210526315789472</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4668,7 +4674,7 @@
       <c r="C116" s="2">
         <v>1.874074074074074</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4682,7 +4688,7 @@
       <c r="C117" s="2">
         <v>1.9197080291970803</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4696,7 +4702,7 @@
       <c r="C118" s="2">
         <v>2.2170542635658914</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4710,7 +4716,7 @@
       <c r="C119" s="2">
         <v>2.248062015503876</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4724,7 +4730,7 @@
       <c r="C120" s="2">
         <v>2.2110091743119265</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -4738,7 +4744,7 @@
       <c r="C121" s="2">
         <v>2.1279069767441858</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="14">
         <v>2013</v>
       </c>
     </row>
@@ -5592,7 +5598,7 @@
       <c r="C182" s="2">
         <v>1.9433962264150944</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5606,7 +5612,7 @@
       <c r="C183" s="2">
         <v>2.5727272727272728</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5620,7 +5626,7 @@
       <c r="C184" s="2">
         <v>2.3650793650793651</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5634,7 +5640,7 @@
       <c r="C185" s="2">
         <v>2.167883211678832</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5648,7 +5654,7 @@
       <c r="C186" s="2">
         <v>2.3076923076923075</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5662,7 +5668,7 @@
       <c r="C187" s="2">
         <v>2.3517241379310345</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5676,7 +5682,7 @@
       <c r="C188" s="2">
         <v>2.4576271186440679</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5690,7 +5696,7 @@
       <c r="C189" s="2">
         <v>2.0641025641025643</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5704,7 +5710,7 @@
       <c r="C190" s="2">
         <v>2.4251968503937009</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5718,7 +5724,7 @@
       <c r="C191" s="2">
         <v>2.4296875</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5732,7 +5738,7 @@
       <c r="C192" s="2">
         <v>2.3714285714285714</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5746,7 +5752,7 @@
       <c r="C193" s="2">
         <v>2.1640625</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5760,7 +5766,7 @@
       <c r="C194" s="2">
         <v>2.2846153846153845</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5774,7 +5780,7 @@
       <c r="C195" s="2">
         <v>2.2560975609756095</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5788,7 +5794,7 @@
       <c r="C196" s="2">
         <v>2.3762376237623761</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5802,7 +5808,7 @@
       <c r="C197" s="2">
         <v>2.3680555555555554</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5816,7 +5822,7 @@
       <c r="C198" s="2">
         <v>2.3066666666666666</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5830,7 +5836,7 @@
       <c r="C199" s="2">
         <v>2.5724637681159419</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5844,7 +5850,7 @@
       <c r="C200" s="2">
         <v>2.3496503496503496</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5858,7 +5864,7 @@
       <c r="C201" s="2">
         <v>2.1616766467065869</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5872,7 +5878,7 @@
       <c r="C202" s="2">
         <v>2.2733333333333334</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5886,7 +5892,7 @@
       <c r="C203" s="2">
         <v>2.5700934579439254</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5900,7 +5906,7 @@
       <c r="C204" s="2">
         <v>2.4251968503937009</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5914,7 +5920,7 @@
       <c r="C205" s="2">
         <v>2.3090909090909091</v>
       </c>
-      <c r="D205" s="15">
+      <c r="D205" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5928,7 +5934,7 @@
       <c r="C206" s="2">
         <v>2.5294117647058822</v>
       </c>
-      <c r="D206" s="15">
+      <c r="D206" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5942,7 +5948,7 @@
       <c r="C207" s="2">
         <v>2.2307692307692308</v>
       </c>
-      <c r="D207" s="15">
+      <c r="D207" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5956,7 +5962,7 @@
       <c r="C208" s="2">
         <v>2.0072992700729926</v>
       </c>
-      <c r="D208" s="15">
+      <c r="D208" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5970,7 +5976,7 @@
       <c r="C209" s="2">
         <v>2.4726027397260273</v>
       </c>
-      <c r="D209" s="15">
+      <c r="D209" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5984,7 +5990,7 @@
       <c r="C210" s="2">
         <v>2.0341880341880341</v>
       </c>
-      <c r="D210" s="15">
+      <c r="D210" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -5998,7 +6004,7 @@
       <c r="C211" s="2">
         <v>2.1129032258064515</v>
       </c>
-      <c r="D211" s="15">
+      <c r="D211" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6012,7 +6018,7 @@
       <c r="C212" s="2">
         <v>2.3473684210526318</v>
       </c>
-      <c r="D212" s="15">
+      <c r="D212" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6026,7 +6032,7 @@
       <c r="C213" s="2">
         <v>2.4384615384615387</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D213" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6040,7 +6046,7 @@
       <c r="C214" s="2">
         <v>2.5483870967741935</v>
       </c>
-      <c r="D214" s="15">
+      <c r="D214" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6054,7 +6060,7 @@
       <c r="C215" s="2">
         <v>2.2479338842975207</v>
       </c>
-      <c r="D215" s="15">
+      <c r="D215" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6068,7 +6074,7 @@
       <c r="C216" s="2">
         <v>2.3972602739726026</v>
       </c>
-      <c r="D216" s="15">
+      <c r="D216" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6082,7 +6088,7 @@
       <c r="C217" s="2">
         <v>2.797752808988764</v>
       </c>
-      <c r="D217" s="15">
+      <c r="D217" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6096,7 +6102,7 @@
       <c r="C218" s="2">
         <v>2.1560283687943262</v>
       </c>
-      <c r="D218" s="15">
+      <c r="D218" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6110,7 +6116,7 @@
       <c r="C219" s="2">
         <v>2.0746268656716418</v>
       </c>
-      <c r="D219" s="15">
+      <c r="D219" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6124,7 +6130,7 @@
       <c r="C220" s="2">
         <v>2.5319148936170213</v>
       </c>
-      <c r="D220" s="15">
+      <c r="D220" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6138,7 +6144,7 @@
       <c r="C221" s="2">
         <v>2.3274336283185839</v>
       </c>
-      <c r="D221" s="15">
+      <c r="D221" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6152,7 +6158,7 @@
       <c r="C222" s="2">
         <v>2.4761904761904763</v>
       </c>
-      <c r="D222" s="15">
+      <c r="D222" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6166,7 +6172,7 @@
       <c r="C223" s="2">
         <v>2.3576642335766422</v>
       </c>
-      <c r="D223" s="15">
+      <c r="D223" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6180,7 +6186,7 @@
       <c r="C224" s="2">
         <v>2.6899224806201549</v>
       </c>
-      <c r="D224" s="15">
+      <c r="D224" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6194,7 +6200,7 @@
       <c r="C225" s="2">
         <v>2.5578947368421052</v>
       </c>
-      <c r="D225" s="15">
+      <c r="D225" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6208,7 +6214,7 @@
       <c r="C226" s="2">
         <v>2.3193277310924372</v>
       </c>
-      <c r="D226" s="15">
+      <c r="D226" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6222,7 +6228,7 @@
       <c r="C227" s="2">
         <v>2.4051724137931036</v>
       </c>
-      <c r="D227" s="15">
+      <c r="D227" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6236,7 +6242,7 @@
       <c r="C228" s="2">
         <v>2.051094890510949</v>
       </c>
-      <c r="D228" s="15">
+      <c r="D228" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6250,7 +6256,7 @@
       <c r="C229" s="2">
         <v>2.3909090909090911</v>
       </c>
-      <c r="D229" s="15">
+      <c r="D229" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6264,7 +6270,7 @@
       <c r="C230" s="2">
         <v>2.3466666666666667</v>
       </c>
-      <c r="D230" s="15">
+      <c r="D230" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6278,7 +6284,7 @@
       <c r="C231" s="2">
         <v>2.5</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6292,7 +6298,7 @@
       <c r="C232" s="2">
         <v>2.5217391304347827</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6306,7 +6312,7 @@
       <c r="C233" s="2">
         <v>2.2342342342342341</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6320,7 +6326,7 @@
       <c r="C234" s="2">
         <v>2.139784946236559</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6334,7 +6340,7 @@
       <c r="C235" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6348,7 +6354,7 @@
       <c r="C236" s="2">
         <v>2.2307692307692308</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6362,7 +6368,7 @@
       <c r="C237" s="2">
         <v>2.0647058823529414</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6376,7 +6382,7 @@
       <c r="C238" s="2">
         <v>2.2945736434108528</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6390,7 +6396,7 @@
       <c r="C239" s="2">
         <v>2.3175675675675675</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6404,7 +6410,7 @@
       <c r="C240" s="2">
         <v>2.0522388059701493</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6418,7 +6424,7 @@
       <c r="C241" s="2">
         <v>2.2323232323232323</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="14">
         <v>2015</v>
       </c>
     </row>
@@ -6432,7 +6438,7 @@
       <c r="C242" s="2">
         <v>2.1363636363636362</v>
       </c>
-      <c r="D242" s="15">
+      <c r="D242" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6446,7 +6452,7 @@
       <c r="C243" s="2">
         <v>2.625</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6460,7 +6466,7 @@
       <c r="C244" s="2">
         <v>2.1602564102564101</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6474,7 +6480,7 @@
       <c r="C245" s="2">
         <v>2.164705882352941</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6488,7 +6494,7 @@
       <c r="C246" s="2">
         <v>2.4732824427480917</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6502,7 +6508,7 @@
       <c r="C247" s="2">
         <v>2.3186274509803924</v>
       </c>
-      <c r="D247" s="15">
+      <c r="D247" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6516,7 +6522,7 @@
       <c r="C248" s="2">
         <v>2.3722627737226278</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6530,7 +6536,7 @@
       <c r="C249" s="2">
         <v>2.0858585858585861</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6544,7 +6550,7 @@
       <c r="C250" s="2">
         <v>2.4899328859060401</v>
       </c>
-      <c r="D250" s="15">
+      <c r="D250" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6558,7 +6564,7 @@
       <c r="C251" s="2">
         <v>2.6758620689655173</v>
       </c>
-      <c r="D251" s="15">
+      <c r="D251" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6572,7 +6578,7 @@
       <c r="C252" s="2">
         <v>2.4193548387096775</v>
       </c>
-      <c r="D252" s="15">
+      <c r="D252" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6586,7 +6592,7 @@
       <c r="C253" s="2">
         <v>2.0306122448979593</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6600,7 +6606,7 @@
       <c r="C254" s="2">
         <v>2.1875</v>
       </c>
-      <c r="D254" s="15">
+      <c r="D254" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6614,7 +6620,7 @@
       <c r="C255" s="2">
         <v>2.3956043956043955</v>
       </c>
-      <c r="D255" s="15">
+      <c r="D255" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6628,7 +6634,7 @@
       <c r="C256" s="2">
         <v>2.3424657534246576</v>
       </c>
-      <c r="D256" s="15">
+      <c r="D256" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6642,7 +6648,7 @@
       <c r="C257" s="2">
         <v>2.3571428571428572</v>
       </c>
-      <c r="D257" s="15">
+      <c r="D257" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6656,7 +6662,7 @@
       <c r="C258" s="2">
         <v>2.2542372881355934</v>
       </c>
-      <c r="D258" s="15">
+      <c r="D258" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6670,7 +6676,7 @@
       <c r="C259" s="2">
         <v>2.3945945945945946</v>
       </c>
-      <c r="D259" s="15">
+      <c r="D259" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6684,7 +6690,7 @@
       <c r="C260" s="2">
         <v>2.5454545454545454</v>
       </c>
-      <c r="D260" s="15">
+      <c r="D260" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6698,7 +6704,7 @@
       <c r="C261" s="2">
         <v>2.0410958904109591</v>
       </c>
-      <c r="D261" s="15">
+      <c r="D261" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6712,7 +6718,7 @@
       <c r="C262" s="2">
         <v>2.4207650273224042</v>
       </c>
-      <c r="D262" s="15">
+      <c r="D262" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6726,7 +6732,7 @@
       <c r="C263" s="2">
         <v>2.2905982905982905</v>
       </c>
-      <c r="D263" s="15">
+      <c r="D263" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6740,7 +6746,7 @@
       <c r="C264" s="2">
         <v>2.358288770053476</v>
       </c>
-      <c r="D264" s="15">
+      <c r="D264" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6754,7 +6760,7 @@
       <c r="C265" s="2">
         <v>2.0794701986754967</v>
       </c>
-      <c r="D265" s="15">
+      <c r="D265" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6768,7 +6774,7 @@
       <c r="C266" s="2">
         <v>2.2989690721649483</v>
       </c>
-      <c r="D266" s="15">
+      <c r="D266" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6782,7 +6788,7 @@
       <c r="C267" s="2">
         <v>2.5116279069767442</v>
       </c>
-      <c r="D267" s="15">
+      <c r="D267" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6796,7 +6802,7 @@
       <c r="C268" s="2">
         <v>2.4777777777777779</v>
       </c>
-      <c r="D268" s="15">
+      <c r="D268" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6810,7 +6816,7 @@
       <c r="C269" s="2">
         <v>2.4121621621621623</v>
       </c>
-      <c r="D269" s="15">
+      <c r="D269" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6824,7 +6830,7 @@
       <c r="C270" s="2">
         <v>2.218884120171674</v>
       </c>
-      <c r="D270" s="15">
+      <c r="D270" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6838,7 +6844,7 @@
       <c r="C271" s="2">
         <v>2.4140625</v>
       </c>
-      <c r="D271" s="15">
+      <c r="D271" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6852,7 +6858,7 @@
       <c r="C272" s="2">
         <v>2.4069767441860463</v>
       </c>
-      <c r="D272" s="15">
+      <c r="D272" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6866,7 +6872,7 @@
       <c r="C273" s="2">
         <v>2.7403846153846154</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6880,7 +6886,7 @@
       <c r="C274" s="2">
         <v>2.4732142857142856</v>
       </c>
-      <c r="D274" s="15">
+      <c r="D274" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6894,7 +6900,7 @@
       <c r="C275" s="2">
         <v>2.5167785234899327</v>
       </c>
-      <c r="D275" s="15">
+      <c r="D275" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6908,7 +6914,7 @@
       <c r="C276" s="2">
         <v>2.5548780487804876</v>
       </c>
-      <c r="D276" s="15">
+      <c r="D276" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6922,7 +6928,7 @@
       <c r="C277" s="2">
         <v>2.4421768707482991</v>
       </c>
-      <c r="D277" s="15">
+      <c r="D277" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6936,7 +6942,7 @@
       <c r="C278" s="2">
         <v>2.1955307262569832</v>
       </c>
-      <c r="D278" s="15">
+      <c r="D278" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6950,7 +6956,7 @@
       <c r="C279" s="2">
         <v>2.1517241379310343</v>
       </c>
-      <c r="D279" s="15">
+      <c r="D279" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6964,7 +6970,7 @@
       <c r="C280" s="2">
         <v>2.377049180327869</v>
       </c>
-      <c r="D280" s="15">
+      <c r="D280" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6978,7 +6984,7 @@
       <c r="C281" s="2">
         <v>2.5066666666666668</v>
       </c>
-      <c r="D281" s="15">
+      <c r="D281" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -6992,7 +6998,7 @@
       <c r="C282" s="2">
         <v>2.3013698630136985</v>
       </c>
-      <c r="D282" s="15">
+      <c r="D282" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7006,7 +7012,7 @@
       <c r="C283" s="2">
         <v>2.3961038961038961</v>
       </c>
-      <c r="D283" s="15">
+      <c r="D283" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7020,7 +7026,7 @@
       <c r="C284" s="2">
         <v>2.5916666666666668</v>
       </c>
-      <c r="D284" s="15">
+      <c r="D284" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7034,7 +7040,7 @@
       <c r="C285" s="2">
         <v>2.7132867132867133</v>
       </c>
-      <c r="D285" s="15">
+      <c r="D285" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7048,7 +7054,7 @@
       <c r="C286" s="2">
         <v>2.5434782608695654</v>
       </c>
-      <c r="D286" s="15">
+      <c r="D286" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7062,7 +7068,7 @@
       <c r="C287" s="2">
         <v>2.1120689655172415</v>
       </c>
-      <c r="D287" s="15">
+      <c r="D287" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7076,7 +7082,7 @@
       <c r="C288" s="2">
         <v>2.0054644808743167</v>
       </c>
-      <c r="D288" s="15">
+      <c r="D288" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7090,7 +7096,7 @@
       <c r="C289" s="2">
         <v>2.4186046511627906</v>
       </c>
-      <c r="D289" s="15">
+      <c r="D289" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7104,7 +7110,7 @@
       <c r="C290" s="2">
         <v>2.452054794520548</v>
       </c>
-      <c r="D290" s="15">
+      <c r="D290" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7118,7 +7124,7 @@
       <c r="C291" s="2">
         <v>2.4835164835164836</v>
       </c>
-      <c r="D291" s="15">
+      <c r="D291" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7132,7 +7138,7 @@
       <c r="C292" s="2">
         <v>1.9915254237288136</v>
       </c>
-      <c r="D292" s="15">
+      <c r="D292" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7146,7 +7152,7 @@
       <c r="C293" s="2">
         <v>2.174496644295302</v>
       </c>
-      <c r="D293" s="15">
+      <c r="D293" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7160,7 +7166,7 @@
       <c r="C294" s="2">
         <v>2.2051282051282053</v>
       </c>
-      <c r="D294" s="15">
+      <c r="D294" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7174,7 +7180,7 @@
       <c r="C295" s="2">
         <v>2.1449275362318843</v>
       </c>
-      <c r="D295" s="15">
+      <c r="D295" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7188,7 +7194,7 @@
       <c r="C296" s="2">
         <v>2.277227722772277</v>
       </c>
-      <c r="D296" s="15">
+      <c r="D296" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7202,7 +7208,7 @@
       <c r="C297" s="2">
         <v>2.0991735537190084</v>
       </c>
-      <c r="D297" s="15">
+      <c r="D297" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7216,7 +7222,7 @@
       <c r="C298" s="2">
         <v>2.6133333333333333</v>
       </c>
-      <c r="D298" s="15">
+      <c r="D298" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7230,7 +7236,7 @@
       <c r="C299" s="2">
         <v>2.5</v>
       </c>
-      <c r="D299" s="15">
+      <c r="D299" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7244,7 +7250,7 @@
       <c r="C300" s="2">
         <v>2.0576923076923075</v>
       </c>
-      <c r="D300" s="15">
+      <c r="D300" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7258,7 +7264,7 @@
       <c r="C301" s="2">
         <v>2.234375</v>
       </c>
-      <c r="D301" s="15">
+      <c r="D301" s="14">
         <v>2016</v>
       </c>
     </row>
@@ -7272,7 +7278,7 @@
       <c r="C302" s="7">
         <v>2.3113207547169812</v>
       </c>
-      <c r="D302" s="15">
+      <c r="D302" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7286,7 +7292,7 @@
       <c r="C303" s="7">
         <v>2.5126050420168067</v>
       </c>
-      <c r="D303" s="15">
+      <c r="D303" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7300,7 +7306,7 @@
       <c r="C304" s="7">
         <v>2.2583333333333333</v>
       </c>
-      <c r="D304" s="15">
+      <c r="D304" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7314,7 +7320,7 @@
       <c r="C305" s="7">
         <v>2.2754491017964074</v>
       </c>
-      <c r="D305" s="15">
+      <c r="D305" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7328,7 +7334,7 @@
       <c r="C306" s="7">
         <v>2.3243243243243241</v>
       </c>
-      <c r="D306" s="15">
+      <c r="D306" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7342,7 +7348,7 @@
       <c r="C307" s="7">
         <v>2.3852459016393444</v>
       </c>
-      <c r="D307" s="15">
+      <c r="D307" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7356,7 +7362,7 @@
       <c r="C308" s="7">
         <v>2.5289256198347108</v>
       </c>
-      <c r="D308" s="15">
+      <c r="D308" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7370,7 +7376,7 @@
       <c r="C309" s="7">
         <v>2.178861788617886</v>
       </c>
-      <c r="D309" s="15">
+      <c r="D309" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7384,7 +7390,7 @@
       <c r="C310" s="7">
         <v>2.4642857142857144</v>
       </c>
-      <c r="D310" s="15">
+      <c r="D310" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7398,7 +7404,7 @@
       <c r="C311" s="7">
         <v>2.5597014925373136</v>
       </c>
-      <c r="D311" s="15">
+      <c r="D311" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7412,7 +7418,7 @@
       <c r="C312" s="7">
         <v>2.2827586206896551</v>
       </c>
-      <c r="D312" s="15">
+      <c r="D312" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7426,7 +7432,7 @@
       <c r="C313" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D313" s="15">
+      <c r="D313" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7440,7 +7446,7 @@
       <c r="C314" s="7">
         <v>2.3513513513513513</v>
       </c>
-      <c r="D314" s="15">
+      <c r="D314" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7454,7 +7460,7 @@
       <c r="C315" s="7">
         <v>2.484375</v>
       </c>
-      <c r="D315" s="15">
+      <c r="D315" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7468,7 +7474,7 @@
       <c r="C316" s="7">
         <v>2.2282608695652173</v>
       </c>
-      <c r="D316" s="15">
+      <c r="D316" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7482,7 +7488,7 @@
       <c r="C317" s="7">
         <v>2.4692307692307693</v>
       </c>
-      <c r="D317" s="15">
+      <c r="D317" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7496,7 +7502,7 @@
       <c r="C318" s="7">
         <v>2.4140625</v>
       </c>
-      <c r="D318" s="15">
+      <c r="D318" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7510,7 +7516,7 @@
       <c r="C319" s="7">
         <v>2.40625</v>
       </c>
-      <c r="D319" s="15">
+      <c r="D319" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7524,7 +7530,7 @@
       <c r="C320" s="7">
         <v>2.3613445378151261</v>
       </c>
-      <c r="D320" s="15">
+      <c r="D320" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7538,7 +7544,7 @@
       <c r="C321" s="7">
         <v>2.2808219178082192</v>
       </c>
-      <c r="D321" s="15">
+      <c r="D321" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7552,7 +7558,7 @@
       <c r="C322" s="7">
         <v>2.4256756756756759</v>
       </c>
-      <c r="D322" s="15">
+      <c r="D322" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7566,7 +7572,7 @@
       <c r="C323" s="7">
         <v>2.2936507936507935</v>
       </c>
-      <c r="D323" s="15">
+      <c r="D323" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7580,7 +7586,7 @@
       <c r="C324" s="7">
         <v>2.447058823529412</v>
       </c>
-      <c r="D324" s="15">
+      <c r="D324" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7594,7 +7600,7 @@
       <c r="C325" s="7">
         <v>2.3614457831325302</v>
       </c>
-      <c r="D325" s="15">
+      <c r="D325" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7608,7 +7614,7 @@
       <c r="C326" s="7">
         <v>2.4516129032258065</v>
       </c>
-      <c r="D326" s="15">
+      <c r="D326" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7622,7 +7628,7 @@
       <c r="C327" s="7">
         <v>2.4149659863945576</v>
       </c>
-      <c r="D327" s="15">
+      <c r="D327" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7636,7 +7642,7 @@
       <c r="C328" s="7">
         <v>2.1984732824427482</v>
       </c>
-      <c r="D328" s="15">
+      <c r="D328" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7650,7 +7656,7 @@
       <c r="C329" s="7">
         <v>2.4969696969696971</v>
       </c>
-      <c r="D329" s="15">
+      <c r="D329" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7664,7 +7670,7 @@
       <c r="C330" s="7">
         <v>2.2366863905325443</v>
       </c>
-      <c r="D330" s="15">
+      <c r="D330" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7678,7 +7684,7 @@
       <c r="C331" s="7">
         <v>2.6565656565656566</v>
       </c>
-      <c r="D331" s="15">
+      <c r="D331" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7692,7 +7698,7 @@
       <c r="C332" s="7">
         <v>2.56</v>
       </c>
-      <c r="D332" s="15">
+      <c r="D332" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7706,7 +7712,7 @@
       <c r="C333" s="7">
         <v>2.8013245033112582</v>
       </c>
-      <c r="D333" s="15">
+      <c r="D333" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7720,7 +7726,7 @@
       <c r="C334" s="7">
         <v>2.6978417266187051</v>
       </c>
-      <c r="D334" s="15">
+      <c r="D334" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7734,7 +7740,7 @@
       <c r="C335" s="7">
         <v>2.72</v>
       </c>
-      <c r="D335" s="15">
+      <c r="D335" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7748,7 +7754,7 @@
       <c r="C336" s="7">
         <v>2.6737588652482271</v>
       </c>
-      <c r="D336" s="15">
+      <c r="D336" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7762,7 +7768,7 @@
       <c r="C337" s="7">
         <v>2.5148514851485149</v>
       </c>
-      <c r="D337" s="15">
+      <c r="D337" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7776,7 +7782,7 @@
       <c r="C338" s="7">
         <v>2.4509803921568629</v>
       </c>
-      <c r="D338" s="15">
+      <c r="D338" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7790,7 +7796,7 @@
       <c r="C339" s="7">
         <v>2.442622950819672</v>
       </c>
-      <c r="D339" s="15">
+      <c r="D339" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7804,7 +7810,7 @@
       <c r="C340" s="7">
         <v>2.4601226993865031</v>
       </c>
-      <c r="D340" s="15">
+      <c r="D340" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7818,7 +7824,7 @@
       <c r="C341" s="7">
         <v>2.2068965517241379</v>
       </c>
-      <c r="D341" s="15">
+      <c r="D341" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7832,7 +7838,7 @@
       <c r="C342" s="7">
         <v>2.4252873563218391</v>
       </c>
-      <c r="D342" s="15">
+      <c r="D342" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7846,7 +7852,7 @@
       <c r="C343" s="7">
         <v>2.388235294117647</v>
       </c>
-      <c r="D343" s="15">
+      <c r="D343" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7860,7 +7866,7 @@
       <c r="C344" s="7">
         <v>2.5125000000000002</v>
       </c>
-      <c r="D344" s="15">
+      <c r="D344" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7874,7 +7880,7 @@
       <c r="C345" s="7">
         <v>2.4378698224852071</v>
       </c>
-      <c r="D345" s="15">
+      <c r="D345" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7888,7 +7894,7 @@
       <c r="C346" s="7">
         <v>2.4539877300613497</v>
       </c>
-      <c r="D346" s="15">
+      <c r="D346" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7902,7 +7908,7 @@
       <c r="C347" s="7">
         <v>2.35</v>
       </c>
-      <c r="D347" s="15">
+      <c r="D347" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7916,7 +7922,7 @@
       <c r="C348" s="7">
         <v>2.2714285714285714</v>
       </c>
-      <c r="D348" s="15">
+      <c r="D348" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7930,7 +7936,7 @@
       <c r="C349" s="7">
         <v>2.4892086330935252</v>
       </c>
-      <c r="D349" s="15">
+      <c r="D349" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7944,7 +7950,7 @@
       <c r="C350" s="7">
         <v>2.3184713375796178</v>
       </c>
-      <c r="D350" s="15">
+      <c r="D350" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7958,7 +7964,7 @@
       <c r="C351" s="7">
         <v>2.5974025974025974</v>
       </c>
-      <c r="D351" s="15">
+      <c r="D351" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7972,7 +7978,7 @@
       <c r="C352" s="7">
         <v>2.6725663716814161</v>
       </c>
-      <c r="D352" s="15">
+      <c r="D352" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -7986,7 +7992,7 @@
       <c r="C353" s="7">
         <v>2.5912408759124088</v>
       </c>
-      <c r="D353" s="15">
+      <c r="D353" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8000,7 +8006,7 @@
       <c r="C354" s="7">
         <v>2.4224137931034484</v>
       </c>
-      <c r="D354" s="15">
+      <c r="D354" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8014,7 +8020,7 @@
       <c r="C355" s="7">
         <v>2.3986013986013988</v>
       </c>
-      <c r="D355" s="15">
+      <c r="D355" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8028,7 +8034,7 @@
       <c r="C356" s="7">
         <v>2.1721854304635762</v>
       </c>
-      <c r="D356" s="15">
+      <c r="D356" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8042,7 +8048,7 @@
       <c r="C357" s="7">
         <v>2.2599999999999998</v>
       </c>
-      <c r="D357" s="15">
+      <c r="D357" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8056,7 +8062,7 @@
       <c r="C358" s="7">
         <v>2.3959731543624163</v>
       </c>
-      <c r="D358" s="15">
+      <c r="D358" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8070,7 +8076,7 @@
       <c r="C359" s="7">
         <v>2.4761904761904763</v>
       </c>
-      <c r="D359" s="15">
+      <c r="D359" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8084,7 +8090,7 @@
       <c r="C360" s="7">
         <v>2.2681159420289854</v>
       </c>
-      <c r="D360" s="15">
+      <c r="D360" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8098,7 +8104,7 @@
       <c r="C361" s="7">
         <v>2.3648648648648649</v>
       </c>
-      <c r="D361" s="15">
+      <c r="D361" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -8112,50 +8118,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>2012</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9288,7 +9294,7 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B40">
@@ -9317,7 +9323,7 @@
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B41">
@@ -9346,7 +9352,7 @@
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B42">
@@ -9375,7 +9381,7 @@
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B43">
@@ -9404,7 +9410,7 @@
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B44">
@@ -9433,7 +9439,7 @@
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B45">
@@ -9462,7 +9468,7 @@
       <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>106</v>
       </c>
       <c r="B46">
@@ -9491,7 +9497,7 @@
       <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B47">
@@ -9520,7 +9526,7 @@
       <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B48">
@@ -9549,7 +9555,7 @@
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B49">
@@ -9578,7 +9584,7 @@
       <c r="M49" s="1"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B50">
@@ -9607,7 +9613,7 @@
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B51">
@@ -9636,7 +9642,7 @@
       <c r="M51" s="1"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B52">
@@ -9665,7 +9671,7 @@
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B53">
@@ -9694,7 +9700,7 @@
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>107</v>
       </c>
       <c r="B54">
@@ -9723,7 +9729,7 @@
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B55">
@@ -9752,7 +9758,7 @@
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B56">
@@ -9781,7 +9787,7 @@
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B57">
@@ -9810,7 +9816,7 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B58">
@@ -9839,7 +9845,7 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B59">
@@ -9868,7 +9874,7 @@
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B60">
@@ -9897,7 +9903,7 @@
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B61">
@@ -12082,11 +12088,11 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C64" s="13"/>
+      <c r="C64" s="12"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="14"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
@@ -12375,7 +12381,7 @@
   <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19442,4483 +19448,5565 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="10" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
         <v>1101</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>10.210000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>50.12</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>49.67</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>1102</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1.1500000000000004</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>32.71</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>76.13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>1103</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>31.35</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>40.82</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>37.83</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>1104</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>3.0700000000000003</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>44.86</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>62.07</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
         <v>1105</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>17.89</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>34.870000000000005</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>57.24</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>1106</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>30.18</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>36.549999999999997</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43.27</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>1107</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>7.2799999999999994</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>38.230000000000004</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>64.490000000000009</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
         <v>1201</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>18.63</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>50.58</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>40.79</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
         <v>1202</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>8.6300000000000008</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>36.370000000000005</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>65</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
         <v>1203</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.0599999999999996</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>37.28</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>70.66</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12">
         <v>1204</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>19.62</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>45.68</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>44.7</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13">
         <v>1205</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>46.5</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>52.5</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
         <v>1206</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>16.600000000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>38.65</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>54.75</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15">
         <v>1207</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6.0500000000000007</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>37.64</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>66.31</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16">
         <v>1208</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>28.840000000000003</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>40.370000000000005</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>40.78</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17">
         <v>1301</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3.5</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>29.5</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>77</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
         <v>1302</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>31.86</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>36.78</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>41.36</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19">
         <v>1303</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5.5</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>34.5</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>70</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20">
         <v>1304</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>8.5</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>47.5</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>54</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
         <v>1305</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>14.09</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>38.65</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>57.26</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
         <v>1306</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>5.5</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>34.5</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>70</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23">
         <v>1307</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5.0500000000000007</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>45.68</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>59.27</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24">
         <v>1308</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.54999999999999982</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>39.81</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>69.650000000000006</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25">
         <v>1309</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.48000000000000043</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>34.870000000000005</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>74.650000000000006</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26">
         <v>1401</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>3.6500000000000004</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>35.019999999999996</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>71.33</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
         <v>1402</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>37.5</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>56.5</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28">
         <v>1404</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>26.05</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>35.42</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>48.52</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G28" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29">
         <v>1405</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.5999999999999996</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>34.379999999999995</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>73.02</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30">
         <v>1406</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>21.38</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>50.12</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>38.5</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31">
         <v>1427</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>9.85</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>31.05</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>69.099999999999994</v>
       </c>
-      <c r="F31" s="1">
+      <c r="G31" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
         <v>1428</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>11.15</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>44.35</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>54.49</v>
       </c>
-      <c r="F32" s="1">
+      <c r="G32" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
         <v>1501</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>33.69</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>37.14</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>39.17</v>
       </c>
-      <c r="F33" s="1">
+      <c r="G33" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34">
         <v>1502</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>9.64</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>42.84</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>57.53</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35">
         <v>1503</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>6.6099999999999994</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>39.299999999999997</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>64.09</v>
       </c>
-      <c r="F35" s="1">
+      <c r="G35" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36">
         <v>1504</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>49.57</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>24.82</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>35.61</v>
       </c>
-      <c r="F36" s="1">
+      <c r="G36" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
         <v>1505</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>12.079999999999998</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>40.159999999999997</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>57.76</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38">
         <v>1506</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>16.899999999999999</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>35.870000000000005</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>57.24</v>
       </c>
-      <c r="F38" s="1">
+      <c r="G38" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39">
         <v>1507</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>16.920000000000002</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>45.73</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>47.35</v>
       </c>
-      <c r="F39" s="1">
+      <c r="G39" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40">
         <v>1601</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>11.82</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>27.88</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>70.31</v>
       </c>
-      <c r="F40" s="1">
+      <c r="G40" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41">
         <v>1602</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>19.23</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>44.35</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>46.41</v>
       </c>
-      <c r="F41" s="1">
+      <c r="G41" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42">
         <v>1603</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>15.5</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>39.5</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>55</v>
       </c>
-      <c r="F42" s="1">
+      <c r="G42" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43">
         <v>1604</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>2.38</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>32.4</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>75.209999999999994</v>
       </c>
-      <c r="F43" s="1">
+      <c r="G43" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44">
         <v>1605</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>5.09</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>27.69</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>77.22</v>
       </c>
-      <c r="F44" s="1">
+      <c r="G44" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45">
         <v>1606</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>3.1799999999999997</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>40.58</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>66.240000000000009</v>
       </c>
-      <c r="F45" s="1">
+      <c r="G45" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
         <v>1607</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>12.920000000000002</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>38.739999999999995</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>58.33</v>
       </c>
-      <c r="F46" s="1">
+      <c r="G46" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47">
         <v>1701</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>16.309999999999999</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>42.85</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>50.83</v>
       </c>
-      <c r="F47" s="1">
+      <c r="G47" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48">
         <v>1702</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>23.67</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>51.23</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>35.1</v>
       </c>
-      <c r="F48" s="1">
+      <c r="G48" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49">
         <v>1703</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>16.309999999999999</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>41.29</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>52.4</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50">
         <v>1704</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>3.7300000000000004</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>34.769999999999996</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>71.489999999999995</v>
       </c>
-      <c r="F50" s="1">
+      <c r="G50" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51">
         <v>1705</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>5.0500000000000007</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>34.629999999999995</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>70.33</v>
       </c>
-      <c r="F51" s="1">
+      <c r="G51" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52">
         <v>1706</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-1.44</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>29.51</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>81.92</v>
       </c>
-      <c r="F52" s="1">
+      <c r="G52" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53">
         <v>1707</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>4.7200000000000006</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>27.46</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>77.819999999999993</v>
       </c>
-      <c r="F53" s="1">
+      <c r="G53" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54">
         <v>1708</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>7.7899999999999991</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>38.739999999999995</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>63.46</v>
       </c>
-      <c r="F54" s="1">
+      <c r="G54" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55">
         <v>1801</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>6.1</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>38.799999999999997</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>65.099999999999994</v>
       </c>
-      <c r="F55" s="1">
+      <c r="G55" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56">
         <v>1802</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>16.100000000000001</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>32.620000000000005</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>61.28</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G56" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57">
         <v>1803</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>11.66</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>38.799999999999997</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>59.55</v>
       </c>
-      <c r="F57" s="1">
+      <c r="G57" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58">
         <v>1804</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>2.0300000000000002</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>24.58</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>83.39</v>
       </c>
-      <c r="F58" s="1">
+      <c r="G58" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59">
         <v>1805</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>1.5</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>32.5</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>76</v>
       </c>
-      <c r="F59" s="1">
+      <c r="G59" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60">
         <v>1806</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>15.8</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>42.5</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>51.7</v>
       </c>
-      <c r="F60" s="1">
+      <c r="G60" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61">
         <v>1807</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>11.58</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>40.159999999999997</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>58.27</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
         <v>1101</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>17.21</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>45.12</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>45.67</v>
       </c>
-      <c r="F62" s="1">
+      <c r="G62" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63">
         <v>1102</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>8.15</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>27.71</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>72.13</v>
       </c>
-      <c r="F63" s="1">
+      <c r="G63" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64">
         <v>1103</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>38.35</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>35.82</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>33.83</v>
       </c>
-      <c r="F64" s="1">
+      <c r="G64" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65">
         <v>1104</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>10.07</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>39.86</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>58.07</v>
       </c>
-      <c r="F65" s="1">
+      <c r="G65" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66">
         <v>1105</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>24.89</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>29.87</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>53.24</v>
       </c>
-      <c r="F66" s="1">
+      <c r="G66" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67">
         <v>1106</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>37.18</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>31.55</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>39.270000000000003</v>
       </c>
-      <c r="F67" s="1">
+      <c r="G67" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
         <v>1107</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>14.28</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>33.230000000000004</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>60.49</v>
       </c>
-      <c r="F68" s="1">
+      <c r="G68" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69">
         <v>1201</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>25.63</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>45.58</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>36.79</v>
       </c>
-      <c r="F69" s="1">
+      <c r="G69" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
         <v>1202</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>15.63</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>31.37</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>61</v>
       </c>
-      <c r="F70" s="1">
+      <c r="G70" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
         <v>1203</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>9.0599999999999987</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>32.28</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>66.66</v>
       </c>
-      <c r="F71" s="1">
+      <c r="G71" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72">
         <v>1204</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>26.62</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>40.68</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>40.700000000000003</v>
       </c>
-      <c r="F72" s="1">
+      <c r="G72" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73">
         <v>1205</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>18</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>41.5</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>48.5</v>
       </c>
-      <c r="F73" s="1">
+      <c r="G73" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
         <v>1206</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>23.6</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>33.65</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>50.75</v>
       </c>
-      <c r="F74" s="1">
+      <c r="G74" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75">
         <v>1207</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>13.05</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>32.64</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>62.31</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76">
         <v>1208</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>35.840000000000003</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>35.370000000000005</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>36.78</v>
       </c>
-      <c r="F76" s="1">
+      <c r="G76" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77">
         <v>1301</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>10.5</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>24.5</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>73</v>
       </c>
-      <c r="F77" s="1">
+      <c r="G77" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
         <v>1302</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>38.86</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>31.78</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>37.36</v>
       </c>
-      <c r="F78" s="1">
+      <c r="G78" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79">
         <v>1303</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>12.5</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>29.5</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>66</v>
       </c>
-      <c r="F79" s="1">
+      <c r="G79" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80">
         <v>1304</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>15.5</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>42.5</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>50</v>
       </c>
-      <c r="F80" s="1">
+      <c r="G80" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81">
         <v>1305</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>21.09</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>33.65</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>53.26</v>
       </c>
-      <c r="F81" s="1">
+      <c r="G81" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
         <v>1306</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>12.5</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>29.5</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>66</v>
       </c>
-      <c r="F82" s="1">
+      <c r="G82" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83">
         <v>1307</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>12.05</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>40.68</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>55.27</v>
       </c>
-      <c r="F83" s="1">
+      <c r="G83" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84">
         <v>1308</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>7.55</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>34.81</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>65.650000000000006</v>
       </c>
-      <c r="F84" s="1">
+      <c r="G84" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85">
         <v>1309</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>7.48</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>29.87</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>70.650000000000006</v>
       </c>
-      <c r="F85" s="1">
+      <c r="G85" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86">
         <v>1401</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>10.65</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>30.02</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>67.33</v>
       </c>
-      <c r="F86" s="1">
+      <c r="G86" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87">
         <v>1402</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>23</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>32.5</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>52.5</v>
       </c>
-      <c r="F87" s="1">
+      <c r="G87" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88">
         <v>1404</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>33.049999999999997</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>30.42</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>44.52</v>
       </c>
-      <c r="F88" s="1">
+      <c r="G88" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89">
         <v>1405</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>9.6</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>29.38</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>69.02</v>
       </c>
-      <c r="F89" s="1">
+      <c r="G89" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B90">
         <v>1406</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>28.38</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>45.12</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>34.5</v>
       </c>
-      <c r="F90" s="1">
+      <c r="G90" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91">
         <v>1427</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>16.850000000000001</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>26.05</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>65.099999999999994</v>
       </c>
-      <c r="F91" s="1">
+      <c r="G91" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92">
         <v>1428</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>18.149999999999999</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>39.35</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>50.49</v>
       </c>
-      <c r="F92" s="1">
+      <c r="G92" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93">
         <v>1501</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>40.69</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>32.14</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>35.17</v>
       </c>
-      <c r="F93" s="1">
+      <c r="G93" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94">
         <v>1502</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>16.64</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>37.840000000000003</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>53.53</v>
       </c>
-      <c r="F94" s="1">
+      <c r="G94" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95">
         <v>1503</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>13.61</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>34.299999999999997</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>60.09</v>
       </c>
-      <c r="F95" s="1">
+      <c r="G95" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96">
         <v>1504</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>56.57</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>19.82</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>31.61</v>
       </c>
-      <c r="F96" s="1">
+      <c r="G96" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97">
         <v>1505</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>19.079999999999998</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>35.159999999999997</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>53.76</v>
       </c>
-      <c r="F97" s="1">
+      <c r="G97" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98">
         <v>1506</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>23.9</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>30.87</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>53.24</v>
       </c>
-      <c r="F98" s="1">
+      <c r="G98" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99">
         <v>1507</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>23.92</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>40.729999999999997</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>43.35</v>
       </c>
-      <c r="F99" s="1">
+      <c r="G99" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100">
         <v>1601</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>18.82</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>22.88</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>66.31</v>
       </c>
-      <c r="F100" s="1">
+      <c r="G100" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
         <v>1602</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>26.23</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>39.35</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>42.41</v>
       </c>
-      <c r="F101" s="1">
+      <c r="G101" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102">
         <v>1603</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>22.5</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>34.5</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>51</v>
       </c>
-      <c r="F102" s="1">
+      <c r="G102" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103">
         <v>1604</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>9.379999999999999</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>27.4</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>71.209999999999994</v>
       </c>
-      <c r="F103" s="1">
+      <c r="G103" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
         <v>1605</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>12.09</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>22.69</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>73.22</v>
       </c>
-      <c r="F104" s="1">
+      <c r="G104" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
         <v>1606</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>10.18</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>35.58</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>62.24</v>
       </c>
-      <c r="F105" s="1">
+      <c r="G105" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
         <v>1607</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>19.920000000000002</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>33.739999999999995</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>54.33</v>
       </c>
-      <c r="F106" s="1">
+      <c r="G106" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
         <v>1701</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>23.31</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>37.85</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>46.83</v>
       </c>
-      <c r="F107" s="1">
+      <c r="G107" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
         <v>1702</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>30.67</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>46.23</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>31.1</v>
       </c>
-      <c r="F108" s="1">
+      <c r="G108" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109">
         <v>1703</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>23.31</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>36.29</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>48.4</v>
       </c>
-      <c r="F109" s="1">
+      <c r="G109" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110">
         <v>1704</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>10.73</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>29.77</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>67.489999999999995</v>
       </c>
-      <c r="F110" s="1">
+      <c r="G110" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111">
         <v>1705</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>12.05</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>29.63</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>66.33</v>
       </c>
-      <c r="F111" s="1">
+      <c r="G111" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112">
         <v>1706</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>5.5600000000000005</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>24.51</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>77.92</v>
       </c>
-      <c r="F112" s="1">
+      <c r="G112" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113">
         <v>1707</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>11.72</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>22.46</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>73.819999999999993</v>
       </c>
-      <c r="F113" s="1">
+      <c r="G113" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114">
         <v>1708</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>14.79</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>33.739999999999995</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>59.46</v>
       </c>
-      <c r="F114" s="1">
+      <c r="G114" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115">
         <v>1801</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>13.1</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>33.799999999999997</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>61.1</v>
       </c>
-      <c r="F115" s="1">
+      <c r="G115" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B116">
         <v>1802</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>23.1</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>27.62</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>57.28</v>
       </c>
-      <c r="F116" s="1">
+      <c r="G116" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B117">
         <v>1803</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>18.66</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>33.799999999999997</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>55.55</v>
       </c>
-      <c r="F117" s="1">
+      <c r="G117" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B118">
         <v>1804</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>9.0300000000000011</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>19.579999999999998</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>79.39</v>
       </c>
-      <c r="F118" s="1">
+      <c r="G118" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B119">
         <v>1805</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>8.5</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>27.5</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>72</v>
       </c>
-      <c r="F119" s="1">
+      <c r="G119" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120">
         <v>1806</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>22.8</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>37.5</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>47.7</v>
       </c>
-      <c r="F120" s="1">
+      <c r="G120" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121">
         <v>1807</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>18.579999999999998</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>35.159999999999997</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>54.27</v>
       </c>
-      <c r="F121" s="1">
+      <c r="G121" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122">
         <v>1101</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>20.21</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>39.119999999999997</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>41.67</v>
       </c>
-      <c r="F122" s="28">
+      <c r="G122" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123">
         <v>1102</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>11.15</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>21.71</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>68.13</v>
       </c>
-      <c r="F123" s="28">
+      <c r="G123" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124">
         <v>1103</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C124">
+      <c r="D124">
         <v>41.35</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>29.82</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>29.83</v>
       </c>
-      <c r="F124" s="28">
+      <c r="G124" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125">
         <v>1104</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C125">
+      <c r="D125">
         <v>13.07</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>33.86</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>54.07</v>
       </c>
-      <c r="F125" s="28">
+      <c r="G125" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126">
         <v>1105</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C126">
+      <c r="D126">
         <v>27.89</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>23.87</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>49.24</v>
       </c>
-      <c r="F126" s="28">
+      <c r="G126" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127">
         <v>1106</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C127">
+      <c r="D127">
         <v>40.18</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>25.55</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>35.270000000000003</v>
       </c>
-      <c r="F127" s="28">
+      <c r="G127" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128">
         <v>1107</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C128">
+      <c r="D128">
         <v>17.28</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>27.23</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>56.49</v>
       </c>
-      <c r="F128" s="28">
+      <c r="G128" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129">
         <v>1201</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C129">
+      <c r="D129">
         <v>28.63</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>39.58</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>32.79</v>
       </c>
-      <c r="F129" s="28">
+      <c r="G129" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130">
         <v>1202</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C130">
+      <c r="D130">
         <v>18.630000000000003</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>25.37</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>57</v>
       </c>
-      <c r="F130" s="28">
+      <c r="G130" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>102</v>
+      </c>
+      <c r="B131">
         <v>1203</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C131">
+      <c r="D131">
         <v>12.059999999999999</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>26.28</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>62.66</v>
       </c>
-      <c r="F131" s="28">
+      <c r="G131" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132">
         <v>1204</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C132">
+      <c r="D132">
         <v>29.62</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>34.68</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>36.700000000000003</v>
       </c>
-      <c r="F132" s="28">
+      <c r="G132" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133">
         <v>1205</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C133">
+      <c r="D133">
         <v>21</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>35.5</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>44.5</v>
       </c>
-      <c r="F133" s="28">
+      <c r="G133" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134">
         <v>1206</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C134">
+      <c r="D134">
         <v>26.6</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>27.65</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>46.75</v>
       </c>
-      <c r="F134" s="28">
+      <c r="G134" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>102</v>
+      </c>
+      <c r="B135">
         <v>1207</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C135">
+      <c r="D135">
         <v>16.05</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>26.64</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>58.31</v>
       </c>
-      <c r="F135" s="28">
+      <c r="G135" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>102</v>
+      </c>
+      <c r="B136">
         <v>1208</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C136">
+      <c r="D136">
         <v>38.840000000000003</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>29.37</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>32.78</v>
       </c>
-      <c r="F136" s="28">
+      <c r="G136" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>103</v>
+      </c>
+      <c r="B137">
         <v>1301</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C137">
+      <c r="D137">
         <v>13.5</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>18.5</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>69</v>
       </c>
-      <c r="F137" s="28">
+      <c r="G137" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138">
         <v>1302</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C138">
+      <c r="D138">
         <v>41.86</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>25.78</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>33.36</v>
       </c>
-      <c r="F138" s="28">
+      <c r="G138" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>103</v>
+      </c>
+      <c r="B139">
         <v>1303</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C139">
+      <c r="D139">
         <v>15.5</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>23.5</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>62</v>
       </c>
-      <c r="F139" s="28">
+      <c r="G139" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140">
         <v>1304</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C140">
+      <c r="D140">
         <v>18.5</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>36.5</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>46</v>
       </c>
-      <c r="F140" s="28">
+      <c r="G140" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141">
         <v>1305</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C141">
+      <c r="D141">
         <v>24.09</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>27.65</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>49.26</v>
       </c>
-      <c r="F141" s="28">
+      <c r="G141" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>103</v>
+      </c>
+      <c r="B142">
         <v>1306</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C142">
+      <c r="D142">
         <v>15.5</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>23.5</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>62</v>
       </c>
-      <c r="F142" s="28">
+      <c r="G142" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>103</v>
+      </c>
+      <c r="B143">
         <v>1307</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C143">
+      <c r="D143">
         <v>15.05</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>34.68</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>51.27</v>
       </c>
-      <c r="F143" s="28">
+      <c r="G143" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>103</v>
+      </c>
+      <c r="B144">
         <v>1308</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C144">
+      <c r="D144">
         <v>10.55</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>28.81</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>61.650000000000006</v>
       </c>
-      <c r="F144" s="28">
+      <c r="G144" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>103</v>
+      </c>
+      <c r="B145">
         <v>1309</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C145">
+      <c r="D145">
         <v>10.48</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>23.87</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>66.650000000000006</v>
       </c>
-      <c r="F145" s="28">
+      <c r="G145" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>104</v>
+      </c>
+      <c r="B146">
         <v>1401</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C146">
+      <c r="D146">
         <v>13.65</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>24.02</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>63.33</v>
       </c>
-      <c r="F146" s="28">
+      <c r="G146" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>104</v>
+      </c>
+      <c r="B147">
         <v>1402</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C147">
+      <c r="D147">
         <v>26</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>26.5</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>48.5</v>
       </c>
-      <c r="F147" s="28">
+      <c r="G147" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148">
         <v>1404</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C148">
+      <c r="D148">
         <v>36.049999999999997</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>24.42</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>40.520000000000003</v>
       </c>
-      <c r="F148" s="28">
+      <c r="G148" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>104</v>
+      </c>
+      <c r="B149">
         <v>1405</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C149">
+      <c r="D149">
         <v>12.6</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>23.38</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>65.02</v>
       </c>
-      <c r="F149" s="28">
+      <c r="G149" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>104</v>
+      </c>
+      <c r="B150">
         <v>1406</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C150">
+      <c r="D150">
         <v>31.38</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>39.119999999999997</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>30.5</v>
       </c>
-      <c r="F150" s="28">
+      <c r="G150" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>104</v>
+      </c>
+      <c r="B151">
         <v>1427</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C151">
+      <c r="D151">
         <v>19.850000000000001</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>20.05</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>61.099999999999994</v>
       </c>
-      <c r="F151" s="28">
+      <c r="G151" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>104</v>
+      </c>
+      <c r="B152">
         <v>1428</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C152">
+      <c r="D152">
         <v>21.15</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>33.35</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>46.49</v>
       </c>
-      <c r="F152" s="28">
+      <c r="G152" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153">
         <v>1501</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C153">
+      <c r="D153">
         <v>43.69</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>26.14</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>31.17</v>
       </c>
-      <c r="F153" s="28">
+      <c r="G153" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>105</v>
+      </c>
+      <c r="B154">
         <v>1502</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C154">
+      <c r="D154">
         <v>19.64</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>31.840000000000003</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>49.53</v>
       </c>
-      <c r="F154" s="28">
+      <c r="G154" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>105</v>
+      </c>
+      <c r="B155">
         <v>1503</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C155">
+      <c r="D155">
         <v>16.61</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>28.3</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>56.09</v>
       </c>
-      <c r="F155" s="28">
+      <c r="G155" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>105</v>
+      </c>
+      <c r="B156">
         <v>1504</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C156">
+      <c r="D156">
         <v>59.57</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>13.82</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>27.61</v>
       </c>
-      <c r="F156" s="28">
+      <c r="G156" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>105</v>
+      </c>
+      <c r="B157">
         <v>1505</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C157">
+      <c r="D157">
         <v>22.08</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>29.16</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>49.76</v>
       </c>
-      <c r="F157" s="28">
+      <c r="G157" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>105</v>
+      </c>
+      <c r="B158">
         <v>1506</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C158">
+      <c r="D158">
         <v>26.9</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>24.87</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>49.24</v>
       </c>
-      <c r="F158" s="28">
+      <c r="G158" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>105</v>
+      </c>
+      <c r="B159">
         <v>1507</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C159">
+      <c r="D159">
         <v>26.92</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>34.729999999999997</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>39.35</v>
       </c>
-      <c r="F159" s="28">
+      <c r="G159" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B160">
         <v>1601</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C160">
+      <c r="D160">
         <v>21.82</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>16.88</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>62.31</v>
       </c>
-      <c r="F160" s="28">
+      <c r="G160" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B161">
         <v>1602</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C161">
+      <c r="D161">
         <v>29.23</v>
       </c>
-      <c r="D161">
+      <c r="E161">
         <v>33.35</v>
       </c>
-      <c r="E161">
+      <c r="F161">
         <v>38.409999999999997</v>
       </c>
-      <c r="F161" s="28">
+      <c r="G161" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B162">
         <v>1603</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C162">
+      <c r="D162">
         <v>25.5</v>
       </c>
-      <c r="D162">
+      <c r="E162">
         <v>28.5</v>
       </c>
-      <c r="E162">
+      <c r="F162">
         <v>47</v>
       </c>
-      <c r="F162" s="28">
+      <c r="G162" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163">
         <v>1604</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C163">
+      <c r="D163">
         <v>12.379999999999999</v>
       </c>
-      <c r="D163">
+      <c r="E163">
         <v>21.4</v>
       </c>
-      <c r="E163">
+      <c r="F163">
         <v>67.209999999999994</v>
       </c>
-      <c r="F163" s="28">
+      <c r="G163" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164">
         <v>1605</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C164">
+      <c r="D164">
         <v>15.09</v>
       </c>
-      <c r="D164">
+      <c r="E164">
         <v>16.690000000000001</v>
       </c>
-      <c r="E164">
+      <c r="F164">
         <v>69.22</v>
       </c>
-      <c r="F164" s="28">
+      <c r="G164" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B165">
         <v>1606</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C165">
+      <c r="D165">
         <v>13.18</v>
       </c>
-      <c r="D165">
+      <c r="E165">
         <v>29.58</v>
       </c>
-      <c r="E165">
+      <c r="F165">
         <v>58.24</v>
       </c>
-      <c r="F165" s="28">
+      <c r="G165" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B166">
         <v>1607</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C166">
+      <c r="D166">
         <v>22.92</v>
       </c>
-      <c r="D166">
+      <c r="E166">
         <v>27.74</v>
       </c>
-      <c r="E166">
+      <c r="F166">
         <v>50.33</v>
       </c>
-      <c r="F166" s="28">
+      <c r="G166" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B167">
         <v>1701</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C167">
+      <c r="D167">
         <v>26.31</v>
       </c>
-      <c r="D167">
+      <c r="E167">
         <v>31.85</v>
       </c>
-      <c r="E167">
+      <c r="F167">
         <v>42.83</v>
       </c>
-      <c r="F167" s="28">
+      <c r="G167" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168">
         <v>1702</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C168">
+      <c r="D168">
         <v>33.67</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>40.229999999999997</v>
       </c>
-      <c r="E168">
+      <c r="F168">
         <v>27.1</v>
       </c>
-      <c r="F168" s="28">
+      <c r="G168" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B169">
         <v>1703</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C169">
+      <c r="D169">
         <v>26.31</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>30.29</v>
       </c>
-      <c r="E169">
+      <c r="F169">
         <v>44.4</v>
       </c>
-      <c r="F169" s="28">
+      <c r="G169" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B170">
         <v>1704</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C170">
+      <c r="D170">
         <v>13.73</v>
       </c>
-      <c r="D170">
+      <c r="E170">
         <v>23.77</v>
       </c>
-      <c r="E170">
+      <c r="F170">
         <v>63.489999999999995</v>
       </c>
-      <c r="F170" s="28">
+      <c r="G170" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B171">
         <v>1705</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C171">
+      <c r="D171">
         <v>15.05</v>
       </c>
-      <c r="D171">
+      <c r="E171">
         <v>23.63</v>
       </c>
-      <c r="E171">
+      <c r="F171">
         <v>62.33</v>
       </c>
-      <c r="F171" s="28">
+      <c r="G171" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B172">
         <v>1706</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C172">
+      <c r="D172">
         <v>8.56</v>
       </c>
-      <c r="D172">
+      <c r="E172">
         <v>18.510000000000002</v>
       </c>
-      <c r="E172">
+      <c r="F172">
         <v>73.92</v>
       </c>
-      <c r="F172" s="28">
+      <c r="G172" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B173">
         <v>1707</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C173">
+      <c r="D173">
         <v>14.72</v>
       </c>
-      <c r="D173">
+      <c r="E173">
         <v>16.46</v>
       </c>
-      <c r="E173">
+      <c r="F173">
         <v>69.819999999999993</v>
       </c>
-      <c r="F173" s="28">
+      <c r="G173" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B174">
         <v>1708</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C174">
+      <c r="D174">
         <v>17.79</v>
       </c>
-      <c r="D174">
+      <c r="E174">
         <v>27.74</v>
       </c>
-      <c r="E174">
+      <c r="F174">
         <v>55.46</v>
       </c>
-      <c r="F174" s="28">
+      <c r="G174" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B175">
         <v>1801</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C175">
+      <c r="D175">
         <v>16.100000000000001</v>
       </c>
-      <c r="D175">
+      <c r="E175">
         <v>27.8</v>
       </c>
-      <c r="E175">
+      <c r="F175">
         <v>57.1</v>
       </c>
-      <c r="F175" s="28">
+      <c r="G175" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B176">
         <v>1802</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C176">
+      <c r="D176">
         <v>26.1</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>21.62</v>
       </c>
-      <c r="E176">
+      <c r="F176">
         <v>53.28</v>
       </c>
-      <c r="F176" s="28">
+      <c r="G176" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B177">
         <v>1803</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C177">
+      <c r="D177">
         <v>21.66</v>
       </c>
-      <c r="D177">
+      <c r="E177">
         <v>27.8</v>
       </c>
-      <c r="E177">
+      <c r="F177">
         <v>51.55</v>
       </c>
-      <c r="F177" s="28">
+      <c r="G177" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B178">
         <v>1804</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C178">
+      <c r="D178">
         <v>12.030000000000001</v>
       </c>
-      <c r="D178">
+      <c r="E178">
         <v>13.58</v>
       </c>
-      <c r="E178">
+      <c r="F178">
         <v>75.39</v>
       </c>
-      <c r="F178" s="28">
+      <c r="G178" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B179">
         <v>1805</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C179">
+      <c r="D179">
         <v>11.5</v>
       </c>
-      <c r="D179">
+      <c r="E179">
         <v>21.5</v>
       </c>
-      <c r="E179">
+      <c r="F179">
         <v>68</v>
       </c>
-      <c r="F179" s="28">
+      <c r="G179" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A180" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B180">
         <v>1806</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C180">
+      <c r="D180">
         <v>25.8</v>
       </c>
-      <c r="D180">
+      <c r="E180">
         <v>31.5</v>
       </c>
-      <c r="E180">
+      <c r="F180">
         <v>43.7</v>
       </c>
-      <c r="F180" s="28">
+      <c r="G180" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181">
         <v>1807</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C181">
+      <c r="D181">
         <v>21.58</v>
       </c>
-      <c r="D181">
+      <c r="E181">
         <v>29.16</v>
       </c>
-      <c r="E181">
+      <c r="F181">
         <v>50.27</v>
       </c>
-      <c r="F181" s="28">
+      <c r="G181" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C182" s="4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182">
+        <v>1101</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" s="4">
         <v>14.21</v>
       </c>
-      <c r="D182" s="4">
+      <c r="E182" s="4">
         <v>41.12</v>
       </c>
-      <c r="E182" s="4">
+      <c r="F182" s="4">
         <v>44.67</v>
       </c>
-      <c r="F182" s="28">
+      <c r="G182" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C183" s="4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183">
+        <v>1102</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="4">
         <v>5.15</v>
       </c>
-      <c r="D183" s="4">
+      <c r="E183" s="4">
         <v>23.71</v>
       </c>
-      <c r="E183" s="4">
+      <c r="F183" s="4">
         <v>71.13</v>
       </c>
-      <c r="F183" s="28">
+      <c r="G183" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C184" s="4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184">
+        <v>1103</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D184" s="4">
         <v>35.35</v>
       </c>
-      <c r="D184" s="4">
+      <c r="E184" s="4">
         <v>31.82</v>
       </c>
-      <c r="E184" s="4">
+      <c r="F184" s="4">
         <v>32.83</v>
       </c>
-      <c r="F184" s="28">
+      <c r="G184" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C185" s="4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>1104</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="4">
         <v>7.07</v>
       </c>
-      <c r="D185" s="4">
+      <c r="E185" s="4">
         <v>35.86</v>
       </c>
-      <c r="E185" s="4">
+      <c r="F185" s="4">
         <v>57.07</v>
       </c>
-      <c r="F185" s="28">
+      <c r="G185" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C186" s="4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186">
+        <v>1105</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D186" s="4">
         <v>21.89</v>
       </c>
-      <c r="D186" s="4">
+      <c r="E186" s="4">
         <v>25.87</v>
       </c>
-      <c r="E186" s="4">
+      <c r="F186" s="4">
         <v>52.24</v>
       </c>
-      <c r="F186" s="28">
+      <c r="G186" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C187" s="4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187">
+        <v>1106</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D187" s="4">
         <v>34.18</v>
       </c>
-      <c r="D187" s="4">
+      <c r="E187" s="4">
         <v>27.55</v>
       </c>
-      <c r="E187" s="4">
+      <c r="F187" s="4">
         <v>38.270000000000003</v>
       </c>
-      <c r="F187" s="28">
+      <c r="G187" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C188" s="4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188">
+        <v>1107</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D188" s="4">
         <v>11.28</v>
       </c>
-      <c r="D188" s="4">
+      <c r="E188" s="4">
         <v>29.23</v>
       </c>
-      <c r="E188" s="4">
+      <c r="F188" s="4">
         <v>59.49</v>
       </c>
-      <c r="F188" s="28">
+      <c r="G188" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C189" s="4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>102</v>
+      </c>
+      <c r="B189">
+        <v>1201</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D189" s="4">
         <v>22.63</v>
       </c>
-      <c r="D189" s="4">
+      <c r="E189" s="4">
         <v>41.58</v>
       </c>
-      <c r="E189" s="4">
+      <c r="F189" s="4">
         <v>35.79</v>
       </c>
-      <c r="F189" s="28">
+      <c r="G189" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C190" s="4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>102</v>
+      </c>
+      <c r="B190">
+        <v>1202</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D190" s="4">
         <v>12.63</v>
       </c>
-      <c r="D190" s="4">
+      <c r="E190" s="4">
         <v>27.37</v>
       </c>
-      <c r="E190" s="4">
+      <c r="F190" s="4">
         <v>60</v>
       </c>
-      <c r="F190" s="28">
+      <c r="G190" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C191" s="4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>102</v>
+      </c>
+      <c r="B191">
+        <v>1203</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D191" s="4">
         <v>6.06</v>
       </c>
-      <c r="D191" s="4">
+      <c r="E191" s="4">
         <v>28.28</v>
       </c>
-      <c r="E191" s="4">
+      <c r="F191" s="4">
         <v>65.66</v>
       </c>
-      <c r="F191" s="28">
+      <c r="G191" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C192" s="4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>102</v>
+      </c>
+      <c r="B192">
+        <v>1204</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D192" s="4">
         <v>23.62</v>
       </c>
-      <c r="D192" s="4">
+      <c r="E192" s="4">
         <v>36.68</v>
       </c>
-      <c r="E192" s="4">
+      <c r="F192" s="4">
         <v>39.700000000000003</v>
       </c>
-      <c r="F192" s="28">
+      <c r="G192" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C193" s="4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>102</v>
+      </c>
+      <c r="B193">
+        <v>1205</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D193" s="4">
         <v>15</v>
       </c>
-      <c r="D193" s="4">
+      <c r="E193" s="4">
         <v>37.5</v>
       </c>
-      <c r="E193" s="4">
+      <c r="F193" s="4">
         <v>47.5</v>
       </c>
-      <c r="F193" s="28">
+      <c r="G193" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C194" s="4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>102</v>
+      </c>
+      <c r="B194">
+        <v>1206</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D194" s="4">
         <v>20.6</v>
       </c>
-      <c r="D194" s="4">
+      <c r="E194" s="4">
         <v>29.65</v>
       </c>
-      <c r="E194" s="4">
+      <c r="F194" s="4">
         <v>49.75</v>
       </c>
-      <c r="F194" s="28">
+      <c r="G194" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C195" s="4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>102</v>
+      </c>
+      <c r="B195">
+        <v>1207</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D195" s="4">
         <v>10.050000000000001</v>
       </c>
-      <c r="D195" s="4">
+      <c r="E195" s="4">
         <v>28.64</v>
       </c>
-      <c r="E195" s="4">
+      <c r="F195" s="4">
         <v>61.31</v>
       </c>
-      <c r="F195" s="28">
+      <c r="G195" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C196" s="4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>102</v>
+      </c>
+      <c r="B196">
+        <v>1208</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D196" s="4">
         <v>32.840000000000003</v>
       </c>
-      <c r="D196" s="4">
+      <c r="E196" s="4">
         <v>31.37</v>
       </c>
-      <c r="E196" s="4">
+      <c r="F196" s="4">
         <v>35.78</v>
       </c>
-      <c r="F196" s="28">
+      <c r="G196" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C197" s="4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>103</v>
+      </c>
+      <c r="B197">
+        <v>1301</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D197" s="4">
         <v>7.5</v>
       </c>
-      <c r="D197" s="4">
+      <c r="E197" s="4">
         <v>20.5</v>
       </c>
-      <c r="E197" s="4">
+      <c r="F197" s="4">
         <v>72</v>
       </c>
-      <c r="F197" s="28">
+      <c r="G197" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C198" s="4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>103</v>
+      </c>
+      <c r="B198">
+        <v>1302</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D198" s="4">
         <v>35.86</v>
       </c>
-      <c r="D198" s="4">
+      <c r="E198" s="4">
         <v>27.78</v>
       </c>
-      <c r="E198" s="4">
+      <c r="F198" s="4">
         <v>36.36</v>
       </c>
-      <c r="F198" s="28">
+      <c r="G198" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C199" s="4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>103</v>
+      </c>
+      <c r="B199">
+        <v>1303</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D199" s="4">
         <v>9.5</v>
       </c>
-      <c r="D199" s="4">
+      <c r="E199" s="4">
         <v>25.5</v>
       </c>
-      <c r="E199" s="4">
+      <c r="F199" s="4">
         <v>65</v>
       </c>
-      <c r="F199" s="28">
+      <c r="G199" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C200" s="4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>103</v>
+      </c>
+      <c r="B200">
+        <v>1304</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="4">
         <v>12.5</v>
       </c>
-      <c r="D200" s="4">
+      <c r="E200" s="4">
         <v>38.5</v>
       </c>
-      <c r="E200" s="4">
+      <c r="F200" s="4">
         <v>49</v>
       </c>
-      <c r="F200" s="28">
+      <c r="G200" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C201" s="4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>103</v>
+      </c>
+      <c r="B201">
+        <v>1305</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D201" s="4">
         <v>18.09</v>
       </c>
-      <c r="D201" s="4">
+      <c r="E201" s="4">
         <v>29.65</v>
       </c>
-      <c r="E201" s="4">
+      <c r="F201" s="4">
         <v>52.26</v>
       </c>
-      <c r="F201" s="28">
+      <c r="G201" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C202" s="4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>103</v>
+      </c>
+      <c r="B202">
+        <v>1306</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D202" s="4">
         <v>9.5</v>
       </c>
-      <c r="D202" s="4">
+      <c r="E202" s="4">
         <v>25.5</v>
       </c>
-      <c r="E202" s="4">
+      <c r="F202" s="4">
         <v>65</v>
       </c>
-      <c r="F202" s="28">
+      <c r="G202" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C203" s="4">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>103</v>
+      </c>
+      <c r="B203">
+        <v>1307</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D203" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D203" s="4">
+      <c r="E203" s="4">
         <v>36.68</v>
       </c>
-      <c r="E203" s="4">
+      <c r="F203" s="4">
         <v>54.27</v>
       </c>
-      <c r="F203" s="28">
+      <c r="G203" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C204" s="4">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>103</v>
+      </c>
+      <c r="B204">
+        <v>1308</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D204" s="4">
         <v>4.55</v>
       </c>
-      <c r="D204" s="4">
+      <c r="E204" s="4">
         <v>30.81</v>
       </c>
-      <c r="E204" s="4">
+      <c r="F204" s="4">
         <v>64.650000000000006</v>
       </c>
-      <c r="F204" s="28">
+      <c r="G204" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C205" s="4">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>103</v>
+      </c>
+      <c r="B205">
+        <v>1309</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D205" s="4">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D205" s="4">
+      <c r="E205" s="4">
         <v>25.87</v>
       </c>
-      <c r="E205" s="4">
+      <c r="F205" s="4">
         <v>69.650000000000006</v>
       </c>
-      <c r="F205" s="28">
+      <c r="G205" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C206" s="4">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>104</v>
+      </c>
+      <c r="B206">
+        <v>1401</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D206" s="4">
         <v>7.65</v>
       </c>
-      <c r="D206" s="4">
+      <c r="E206" s="4">
         <v>26.02</v>
       </c>
-      <c r="E206" s="4">
+      <c r="F206" s="4">
         <v>66.33</v>
       </c>
-      <c r="F206" s="28">
+      <c r="G206" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C207" s="4">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>104</v>
+      </c>
+      <c r="B207">
+        <v>1402</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" s="4">
         <v>20</v>
       </c>
-      <c r="D207" s="4">
+      <c r="E207" s="4">
         <v>28.5</v>
       </c>
-      <c r="E207" s="4">
+      <c r="F207" s="4">
         <v>51.5</v>
       </c>
-      <c r="F207" s="28">
+      <c r="G207" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C208" s="4">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>104</v>
+      </c>
+      <c r="B208">
+        <v>1404</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D208" s="4">
         <v>30.05</v>
       </c>
-      <c r="D208" s="4">
+      <c r="E208" s="4">
         <v>26.42</v>
       </c>
-      <c r="E208" s="4">
+      <c r="F208" s="4">
         <v>43.52</v>
       </c>
-      <c r="F208" s="28">
+      <c r="G208" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="209" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C209" s="4">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>104</v>
+      </c>
+      <c r="B209">
+        <v>1405</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D209" s="4">
         <v>6.6</v>
       </c>
-      <c r="D209" s="4">
+      <c r="E209" s="4">
         <v>25.38</v>
       </c>
-      <c r="E209" s="4">
+      <c r="F209" s="4">
         <v>68.02</v>
       </c>
-      <c r="F209" s="28">
+      <c r="G209" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="210" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C210" s="4">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>104</v>
+      </c>
+      <c r="B210">
+        <v>1406</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210" s="4">
         <v>25.38</v>
       </c>
-      <c r="D210" s="4">
+      <c r="E210" s="4">
         <v>41.12</v>
       </c>
-      <c r="E210" s="4">
+      <c r="F210" s="4">
         <v>33.5</v>
       </c>
-      <c r="F210" s="28">
+      <c r="G210" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="211" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C211" s="4">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>104</v>
+      </c>
+      <c r="B211">
+        <v>1427</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D211" s="4">
         <v>13.85</v>
       </c>
-      <c r="D211" s="4">
+      <c r="E211" s="4">
         <v>22.05</v>
       </c>
-      <c r="E211" s="4">
+      <c r="F211" s="4">
         <v>64.099999999999994</v>
       </c>
-      <c r="F211" s="28">
+      <c r="G211" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="212" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C212" s="4">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>104</v>
+      </c>
+      <c r="B212">
+        <v>1428</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D212" s="4">
         <v>15.15</v>
       </c>
-      <c r="D212" s="4">
+      <c r="E212" s="4">
         <v>35.35</v>
       </c>
-      <c r="E212" s="4">
+      <c r="F212" s="4">
         <v>49.49</v>
       </c>
-      <c r="F212" s="28">
+      <c r="G212" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="213" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C213" s="4">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>105</v>
+      </c>
+      <c r="B213">
+        <v>1501</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D213" s="4">
         <v>37.69</v>
       </c>
-      <c r="D213" s="4">
+      <c r="E213" s="4">
         <v>28.14</v>
       </c>
-      <c r="E213" s="4">
+      <c r="F213" s="4">
         <v>34.17</v>
       </c>
-      <c r="F213" s="28">
+      <c r="G213" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="214" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C214" s="4">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>105</v>
+      </c>
+      <c r="B214">
+        <v>1502</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D214" s="4">
         <v>13.64</v>
       </c>
-      <c r="D214" s="4">
+      <c r="E214" s="4">
         <v>33.840000000000003</v>
       </c>
-      <c r="E214" s="4">
+      <c r="F214" s="4">
         <v>52.53</v>
       </c>
-      <c r="F214" s="28">
+      <c r="G214" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="215" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C215" s="4">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>105</v>
+      </c>
+      <c r="B215">
+        <v>1503</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" s="4">
         <v>10.61</v>
       </c>
-      <c r="D215" s="4">
+      <c r="E215" s="4">
         <v>30.3</v>
       </c>
-      <c r="E215" s="4">
+      <c r="F215" s="4">
         <v>59.09</v>
       </c>
-      <c r="F215" s="28">
+      <c r="G215" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="216" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C216" s="4">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>105</v>
+      </c>
+      <c r="B216">
+        <v>1504</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216" s="4">
         <v>53.57</v>
       </c>
-      <c r="D216" s="4">
+      <c r="E216" s="4">
         <v>15.82</v>
       </c>
-      <c r="E216" s="4">
+      <c r="F216" s="4">
         <v>30.61</v>
       </c>
-      <c r="F216" s="28">
+      <c r="G216" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="217" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C217" s="4">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>105</v>
+      </c>
+      <c r="B217">
+        <v>1505</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D217" s="4">
         <v>16.079999999999998</v>
       </c>
-      <c r="D217" s="4">
+      <c r="E217" s="4">
         <v>31.16</v>
       </c>
-      <c r="E217" s="4">
+      <c r="F217" s="4">
         <v>52.76</v>
       </c>
-      <c r="F217" s="28">
+      <c r="G217" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="218" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C218" s="4">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>105</v>
+      </c>
+      <c r="B218">
+        <v>1506</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D218" s="4">
         <v>20.9</v>
       </c>
-      <c r="D218" s="4">
+      <c r="E218" s="4">
         <v>26.87</v>
       </c>
-      <c r="E218" s="4">
+      <c r="F218" s="4">
         <v>52.24</v>
       </c>
-      <c r="F218" s="28">
+      <c r="G218" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="219" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C219" s="4">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>105</v>
+      </c>
+      <c r="B219">
+        <v>1507</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D219" s="4">
         <v>20.92</v>
       </c>
-      <c r="D219" s="4">
+      <c r="E219" s="4">
         <v>36.729999999999997</v>
       </c>
-      <c r="E219" s="4">
+      <c r="F219" s="4">
         <v>42.35</v>
       </c>
-      <c r="F219" s="28">
+      <c r="G219" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="220" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C220" s="4">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B220">
+        <v>1601</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" s="4">
         <v>15.82</v>
       </c>
-      <c r="D220" s="4">
+      <c r="E220" s="4">
         <v>18.88</v>
       </c>
-      <c r="E220" s="4">
+      <c r="F220" s="4">
         <v>65.31</v>
       </c>
-      <c r="F220" s="28">
+      <c r="G220" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="221" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C221" s="4">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B221">
+        <v>1602</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221" s="4">
         <v>23.23</v>
       </c>
-      <c r="D221" s="4">
+      <c r="E221" s="4">
         <v>35.35</v>
       </c>
-      <c r="E221" s="4">
+      <c r="F221" s="4">
         <v>41.41</v>
       </c>
-      <c r="F221" s="28">
+      <c r="G221" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="222" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C222" s="4">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B222">
+        <v>1603</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" s="4">
         <v>19.5</v>
       </c>
-      <c r="D222" s="4">
+      <c r="E222" s="4">
         <v>30.5</v>
       </c>
-      <c r="E222" s="4">
+      <c r="F222" s="4">
         <v>50</v>
       </c>
-      <c r="F222" s="28">
+      <c r="G222" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="223" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C223" s="4">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B223">
+        <v>1604</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D223" s="4">
         <v>6.38</v>
       </c>
-      <c r="D223" s="4">
+      <c r="E223" s="4">
         <v>23.4</v>
       </c>
-      <c r="E223" s="4">
+      <c r="F223" s="4">
         <v>70.209999999999994</v>
       </c>
-      <c r="F223" s="28">
+      <c r="G223" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="224" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C224" s="4">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224">
+        <v>1605</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" s="4">
         <v>9.09</v>
       </c>
-      <c r="D224" s="4">
+      <c r="E224" s="4">
         <v>18.690000000000001</v>
       </c>
-      <c r="E224" s="4">
+      <c r="F224" s="4">
         <v>72.22</v>
       </c>
-      <c r="F224" s="28">
+      <c r="G224" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="225" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C225" s="4">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B225">
+        <v>1606</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" s="4">
         <v>7.18</v>
       </c>
-      <c r="D225" s="4">
+      <c r="E225" s="4">
         <v>31.58</v>
       </c>
-      <c r="E225" s="4">
+      <c r="F225" s="4">
         <v>61.24</v>
       </c>
-      <c r="F225" s="28">
+      <c r="G225" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="226" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C226" s="4">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B226">
+        <v>1607</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="4">
         <v>16.920000000000002</v>
       </c>
-      <c r="D226" s="4">
+      <c r="E226" s="4">
         <v>29.74</v>
       </c>
-      <c r="E226" s="4">
+      <c r="F226" s="4">
         <v>53.33</v>
       </c>
-      <c r="F226" s="28">
+      <c r="G226" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="227" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C227" s="4">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B227">
+        <v>1701</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="4">
         <v>20.309999999999999</v>
       </c>
-      <c r="D227" s="4">
+      <c r="E227" s="4">
         <v>33.85</v>
       </c>
-      <c r="E227" s="4">
+      <c r="F227" s="4">
         <v>45.83</v>
       </c>
-      <c r="F227" s="28">
+      <c r="G227" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="228" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C228" s="4">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B228">
+        <v>1702</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228" s="4">
         <v>27.67</v>
       </c>
-      <c r="D228" s="4">
+      <c r="E228" s="4">
         <v>42.23</v>
       </c>
-      <c r="E228" s="4">
+      <c r="F228" s="4">
         <v>30.1</v>
       </c>
-      <c r="F228" s="28">
+      <c r="G228" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="229" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C229" s="4">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B229">
+        <v>1703</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="4">
         <v>20.309999999999999</v>
       </c>
-      <c r="D229" s="4">
+      <c r="E229" s="4">
         <v>32.29</v>
       </c>
-      <c r="E229" s="4">
+      <c r="F229" s="4">
         <v>47.4</v>
       </c>
-      <c r="F229" s="28">
+      <c r="G229" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="230" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C230" s="4">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B230">
+        <v>1704</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D230" s="4">
         <v>7.73</v>
       </c>
-      <c r="D230" s="4">
+      <c r="E230" s="4">
         <v>25.77</v>
       </c>
-      <c r="E230" s="4">
+      <c r="F230" s="4">
         <v>66.489999999999995</v>
       </c>
-      <c r="F230" s="28">
+      <c r="G230" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="231" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C231" s="4">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B231">
+        <v>1705</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D231" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="D231" s="4">
+      <c r="E231" s="4">
         <v>25.63</v>
       </c>
-      <c r="E231" s="4">
+      <c r="F231" s="4">
         <v>65.33</v>
       </c>
-      <c r="F231" s="28">
+      <c r="G231" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="232" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C232" s="4">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B232">
+        <v>1706</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D232" s="4">
         <v>2.56</v>
       </c>
-      <c r="D232" s="4">
+      <c r="E232" s="4">
         <v>20.51</v>
       </c>
-      <c r="E232" s="4">
+      <c r="F232" s="4">
         <v>76.92</v>
       </c>
-      <c r="F232" s="28">
+      <c r="G232" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="233" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C233" s="4">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233">
+        <v>1707</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D233" s="4">
         <v>8.7200000000000006</v>
       </c>
-      <c r="D233" s="4">
+      <c r="E233" s="4">
         <v>18.46</v>
       </c>
-      <c r="E233" s="4">
+      <c r="F233" s="4">
         <v>72.819999999999993</v>
       </c>
-      <c r="F233" s="28">
+      <c r="G233" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="234" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C234" s="4">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B234">
+        <v>1708</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D234" s="4">
         <v>11.79</v>
       </c>
-      <c r="D234" s="4">
+      <c r="E234" s="4">
         <v>29.74</v>
       </c>
-      <c r="E234" s="4">
+      <c r="F234" s="4">
         <v>58.46</v>
       </c>
-      <c r="F234" s="28">
+      <c r="G234" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="235" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C235" s="4">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B235">
+        <v>1801</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" s="4">
         <v>10.1</v>
       </c>
-      <c r="D235" s="4">
+      <c r="E235" s="4">
         <v>29.8</v>
       </c>
-      <c r="E235" s="4">
+      <c r="F235" s="4">
         <v>60.1</v>
       </c>
-      <c r="F235" s="28">
+      <c r="G235" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="236" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C236" s="4">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B236">
+        <v>1802</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="4">
         <v>20.100000000000001</v>
       </c>
-      <c r="D236" s="4">
+      <c r="E236" s="4">
         <v>23.62</v>
       </c>
-      <c r="E236" s="4">
+      <c r="F236" s="4">
         <v>56.28</v>
       </c>
-      <c r="F236" s="28">
+      <c r="G236" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="237" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C237" s="4">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B237">
+        <v>1803</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D237" s="4">
         <v>15.66</v>
       </c>
-      <c r="D237" s="4">
+      <c r="E237" s="4">
         <v>29.8</v>
       </c>
-      <c r="E237" s="4">
+      <c r="F237" s="4">
         <v>54.55</v>
       </c>
-      <c r="F237" s="28">
+      <c r="G237" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="238" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C238" s="4">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B238">
+        <v>1804</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D238" s="4">
         <v>6.03</v>
       </c>
-      <c r="D238" s="4">
+      <c r="E238" s="4">
         <v>15.58</v>
       </c>
-      <c r="E238" s="4">
+      <c r="F238" s="4">
         <v>78.39</v>
       </c>
-      <c r="F238" s="28">
+      <c r="G238" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="239" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C239" s="4">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B239">
+        <v>1805</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" s="4">
         <v>5.5</v>
       </c>
-      <c r="D239" s="4">
+      <c r="E239" s="4">
         <v>23.5</v>
       </c>
-      <c r="E239" s="4">
+      <c r="F239" s="4">
         <v>71</v>
       </c>
-      <c r="F239" s="28">
+      <c r="G239" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="240" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C240" s="4">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B240">
+        <v>1806</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="4">
         <v>19.8</v>
       </c>
-      <c r="D240" s="4">
+      <c r="E240" s="4">
         <v>33.5</v>
       </c>
-      <c r="E240" s="4">
+      <c r="F240" s="4">
         <v>46.7</v>
       </c>
-      <c r="F240" s="28">
+      <c r="G240" s="23">
         <v>2017</v>
       </c>
     </row>
-    <row r="241" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C241" s="4">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B241">
+        <v>1807</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D241" s="4">
         <v>15.58</v>
       </c>
-      <c r="D241" s="4">
+      <c r="E241" s="4">
         <v>31.16</v>
       </c>
-      <c r="E241" s="4">
+      <c r="F241" s="4">
         <v>53.27</v>
       </c>
-      <c r="F241" s="28">
+      <c r="G241" s="23">
         <v>2017</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>